--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,6 +415,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42394</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.79652777777777783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Anlegen des Projekts, Image und Textbox hinzugefügt</t>
+  </si>
+  <si>
+    <t>ERD erstellt: erste Version</t>
+  </si>
+  <si>
+    <t>Creates, Inserts, View</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,6 +428,34 @@
       <c r="B3" s="3">
         <v>0.79652777777777783</v>
       </c>
+      <c r="C3" s="3">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-B3</f>
+        <v>3.6111111111111094E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4-B4</f>
+        <v>4.2361111111111294E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Creates, Inserts, View</t>
+  </si>
+  <si>
+    <t>ListView, Database Connection</t>
+  </si>
+  <si>
+    <t>Database Connection</t>
   </si>
 </sst>
 </file>
@@ -89,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -371,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,6 +464,42 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>42395</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5-B5</f>
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-B6</f>
+        <v>2.9166666666666785E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Database Connection</t>
+  </si>
+  <si>
+    <t>setter und getter, Klasse Auftrag</t>
+  </si>
+  <si>
+    <t>Databinding</t>
+  </si>
+  <si>
+    <t>neu erstellen</t>
   </si>
 </sst>
 </file>
@@ -378,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +430,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D2" s="3">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="E2" t="s">
@@ -439,7 +448,7 @@
         <v>0.83263888888888893</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>3.6111111111111094E-2</v>
       </c>
       <c r="E3" t="s">
@@ -457,7 +466,7 @@
         <v>0.72291666666666676</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>4.2361111111111294E-2</v>
       </c>
       <c r="E4" t="s">
@@ -475,7 +484,7 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" t="s">
@@ -493,11 +502,58 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>2.9166666666666785E-2</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42396</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42397</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1388888888888817E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42397</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -62,7 +62,7 @@
     <t>Databinding</t>
   </si>
   <si>
-    <t>neu erstellen</t>
+    <t>neu erstellen, grid funktioniert, Button erstellt</t>
   </si>
 </sst>
 </file>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,7 +430,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D9" si="0">C2-B2</f>
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="E2" t="s">
@@ -552,9 +552,19 @@
       <c r="B9" s="3">
         <v>0.66736111111111107</v>
       </c>
+      <c r="C9" s="3">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5833333333333326E-2</v>
+      </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>neu erstellen, grid funktioniert, Button erstellt</t>
+  </si>
+  <si>
+    <t>Database überarbeiten, fertig gestellt</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,7 +433,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D9" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="E2" t="s">
@@ -564,7 +567,25 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="3"/>
+      <c r="A10" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8888888888888917E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Database überarbeiten, fertig gestellt</t>
+  </si>
+  <si>
+    <t>GUI anpassen, Windows hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="E2" t="s">
@@ -585,7 +588,22 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
+      <c r="A11" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>GUI anpassen, Windows hinzufügen</t>
+  </si>
+  <si>
+    <t>Gui anpassen</t>
+  </si>
+  <si>
+    <t>AddAuftrag bearbeiten, GUI</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +442,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D13" si="0">C2-B2</f>
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="E2" t="s">
@@ -595,14 +601,50 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="C11" s="3">
-        <v>0.76944444444444438</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>1.8749999999999933E-2</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0277777777776347E-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7361111111111205E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/bosnjak_protokoll.xlsx
+++ b/bosnjak_protokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>AddAuftrag bearbeiten, GUI</t>
+  </si>
+  <si>
+    <t>addBauvorhaben mit insert funktioniert</t>
+  </si>
+  <si>
+    <t>addAuftraggeber mit insert funktioniert</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,7 +448,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D13" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D15" si="0">C2-B2</f>
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="E2" t="s">
@@ -646,6 +652,45 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888795E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
